--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/41.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/41.xlsx
@@ -479,13 +479,13 @@
         <v>-15.0315156463349</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.68122670534556</v>
+        <v>-14.45218995943241</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6184045462651812</v>
+        <v>-0.5796644221565137</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.44353948949523</v>
+        <v>-11.02317182985309</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.82852275340716</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.84567912134048</v>
+        <v>-14.63913495170941</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5392092063755802</v>
+        <v>-0.5372322686464795</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.21445037437071</v>
+        <v>-10.77732456709116</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.58540075420726</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.19529597642594</v>
+        <v>-14.96167692451817</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3521725679786816</v>
+        <v>-0.3900224154941117</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.80142749662278</v>
+        <v>-10.35115701729013</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.29757605302989</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.65352657588635</v>
+        <v>-15.42299730744923</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3296668993937545</v>
+        <v>-0.3533115983259117</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.60301364705642</v>
+        <v>-10.14404987863687</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.9742514974543</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.15405840582838</v>
+        <v>-15.89866685429483</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2697696138928577</v>
+        <v>-0.3117828137119567</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.38121694461474</v>
+        <v>-9.943083030016371</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.61421165557119</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.67358716719375</v>
+        <v>-16.4018171448052</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2442527156543336</v>
+        <v>-0.3169019041230716</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.24728268654388</v>
+        <v>-9.797601360839112</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.20598239427351</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.20389089379787</v>
+        <v>-16.92457970497248</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0315551636876519</v>
+        <v>-0.09496118635013125</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.02720107577446</v>
+        <v>-9.597812819474372</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.73294106472741</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.84197045739507</v>
+        <v>-17.54235310686217</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04270437803061836</v>
+        <v>0.02560583051932411</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.969123620368565</v>
+        <v>-9.573343305463187</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.19968580193316</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.26974836044563</v>
+        <v>-17.95913347552568</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2239411262686323</v>
+        <v>0.1931873068934178</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.700430289147821</v>
+        <v>-9.294987854745248</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.60154988751838</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.85713452743967</v>
+        <v>-18.52591235784684</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4398462924315369</v>
+        <v>0.3637276437097415</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.573317120857503</v>
+        <v>-9.198563044315936</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.93501324187301</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.39245260603216</v>
+        <v>-19.04836070274592</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4355127401909256</v>
+        <v>0.40012424560974</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.05432514390864</v>
+        <v>-8.685213849891856</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.19930368170749</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.18047831407565</v>
+        <v>-19.8179655406911</v>
       </c>
       <c r="F13" t="n">
-        <v>0.593785589244552</v>
+        <v>0.5407486704327197</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.473105451553053</v>
+        <v>-8.100825820248572</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.420532906235012</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.02718372345576</v>
+        <v>-20.65184049328632</v>
       </c>
       <c r="F14" t="n">
-        <v>0.826880949038643</v>
+        <v>0.7691962627179979</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.993207090889583</v>
+        <v>-7.566267095220896</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.615599428426798</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.84398631314537</v>
+        <v>-21.47232202007445</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9227296981429195</v>
+        <v>0.8644165812858716</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.390660037204825</v>
+        <v>-6.995128476053439</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.799968747144156</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.77589642941943</v>
+        <v>-22.39170280252898</v>
       </c>
       <c r="F16" t="n">
-        <v>1.196895611951505</v>
+        <v>1.131565020771292</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.984615356871532</v>
+        <v>-6.5514172404445</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.987086727562942</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.38216169711124</v>
+        <v>-23.00998680422949</v>
       </c>
       <c r="F17" t="n">
-        <v>1.351122939427038</v>
+        <v>1.295192621687184</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.898795311744018</v>
+        <v>-6.433953099348534</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.200494324338825</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.20417502333185</v>
+        <v>-23.8140505832541</v>
       </c>
       <c r="F18" t="n">
-        <v>1.683929277663715</v>
+        <v>1.626558806611271</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.423832749251879</v>
+        <v>-5.989705079323085</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.44856187528871</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.97377986127703</v>
+        <v>-24.59538612454547</v>
       </c>
       <c r="F19" t="n">
-        <v>1.896286429756512</v>
+        <v>1.853893553155003</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.242321062654189</v>
+        <v>-5.778264388429209</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.733872457009438</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.77059050452732</v>
+        <v>-25.3717204061513</v>
       </c>
       <c r="F20" t="n">
-        <v>2.078557469919022</v>
+        <v>2.054415263478879</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.00491833522517</v>
+        <v>-5.542760044912241</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.05875093646233</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.34221353889993</v>
+        <v>-25.94998123806466</v>
       </c>
       <c r="F21" t="n">
-        <v>2.411389992761382</v>
+        <v>2.411494731184116</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.729194437378419</v>
+        <v>-5.275533051609769</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.432421066148441</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.94334662387778</v>
+        <v>-26.53567849799211</v>
       </c>
       <c r="F22" t="n">
-        <v>2.644956675457775</v>
+        <v>2.668915589658134</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.258447596401317</v>
+        <v>-4.901551420935864</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.855761921396038</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.43492331867607</v>
+        <v>-27.03589611266594</v>
       </c>
       <c r="F23" t="n">
-        <v>2.861162964586039</v>
+        <v>2.876271482065391</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.180587671401572</v>
+        <v>-4.781560465391445</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.32783520878858</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.65508348326253</v>
+        <v>-27.25218095561126</v>
       </c>
       <c r="F24" t="n">
-        <v>2.901356334310139</v>
+        <v>2.958491143911431</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.920849475324569</v>
+        <v>-4.558519994179799</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.849916130688349</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.99031189752493</v>
+        <v>-27.58840438488962</v>
       </c>
       <c r="F25" t="n">
-        <v>3.207192528692859</v>
+        <v>3.264327338294152</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.667120646251917</v>
+        <v>-4.309019978925026</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.425065447338544</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.96267404622605</v>
+        <v>-27.55945730330657</v>
       </c>
       <c r="F26" t="n">
-        <v>3.219682585603866</v>
+        <v>3.3115643669471</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.695439297298571</v>
+        <v>-4.297629675452725</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.04956453244733</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.91166643435468</v>
+        <v>-27.48916472934934</v>
       </c>
       <c r="F27" t="n">
-        <v>3.23754048667998</v>
+        <v>3.324735223605876</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.545493152852282</v>
+        <v>-4.185742855367334</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.7178818693336566</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.79576027729688</v>
+        <v>-27.40854232844999</v>
       </c>
       <c r="F28" t="n">
-        <v>3.346677923168609</v>
+        <v>3.416590820343426</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.576561187495698</v>
+        <v>-4.198547127546542</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.4271115582440589</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.68531361052408</v>
+        <v>-27.27359996306032</v>
       </c>
       <c r="F29" t="n">
-        <v>3.305384800005805</v>
+        <v>3.399806488100333</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.470578995991926</v>
+        <v>-4.11305438999007</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.1750432453608907</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.52679200771646</v>
+        <v>-27.13689013678702</v>
       </c>
       <c r="F30" t="n">
-        <v>3.329972144742567</v>
+        <v>3.392003475606665</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.406688558124302</v>
+        <v>-4.061313609159569</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.04284295719730455</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.13615696782788</v>
+        <v>-26.73946019172358</v>
       </c>
       <c r="F31" t="n">
-        <v>3.195330902318255</v>
+        <v>3.274958288201633</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.575147218788792</v>
+        <v>-4.229732992915533</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.2308161868402706</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.83028149653663</v>
+        <v>-26.41487581967151</v>
       </c>
       <c r="F32" t="n">
-        <v>3.159719838588761</v>
+        <v>3.23222501172624</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.727738008409109</v>
+        <v>-4.354541915905708</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.3898155405090726</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.3744598807991</v>
+        <v>-25.97945201176138</v>
       </c>
       <c r="F33" t="n">
-        <v>3.069409133586534</v>
+        <v>3.131597572084733</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.886246518913887</v>
+        <v>-4.496122078836133</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5202623199313404</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.89471862776973</v>
+        <v>-25.51060355469633</v>
       </c>
       <c r="F34" t="n">
-        <v>3.047963941531787</v>
+        <v>3.070561256236606</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.800387196877847</v>
+        <v>-4.417070754277791</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6226354608540116</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.54772023325262</v>
+        <v>-25.16415503689857</v>
       </c>
       <c r="F35" t="n">
-        <v>2.831286329501221</v>
+        <v>2.840608049124529</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.002479983542731</v>
+        <v>-4.557197671592785</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6965811324428318</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.80128877133729</v>
+        <v>-24.43683833713217</v>
       </c>
       <c r="F36" t="n">
-        <v>2.724453138312736</v>
+        <v>2.72819753692547</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.31945772764376</v>
+        <v>-4.886901134055973</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7390767734610856</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.35522092121684</v>
+        <v>-24.00599683521664</v>
       </c>
       <c r="F37" t="n">
-        <v>2.548832987993822</v>
+        <v>2.566900365915404</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.492066648309077</v>
+        <v>-5.008646458181183</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7474162438849958</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.97064761754398</v>
+        <v>-23.61757439450831</v>
       </c>
       <c r="F38" t="n">
-        <v>2.537756899789722</v>
+        <v>2.529822964267636</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.596477763471842</v>
+        <v>-5.124762092084453</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7198347285999902</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.50943197303566</v>
+        <v>-23.15650276533125</v>
       </c>
       <c r="F39" t="n">
-        <v>2.356219028586348</v>
+        <v>2.412463561594404</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.556794993558571</v>
+        <v>-5.071083650433375</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6560901202464903</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.13373525068949</v>
+        <v>-22.7881246402736</v>
       </c>
       <c r="F40" t="n">
-        <v>2.444199303682748</v>
+        <v>2.456872652833539</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.60570783697526</v>
+        <v>-5.11405258835992</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5559515311057572</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.54905919038368</v>
+        <v>-22.24349793436064</v>
       </c>
       <c r="F41" t="n">
-        <v>2.396805167395699</v>
+        <v>2.46886520223656</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.582547553248246</v>
+        <v>-5.082905999899454</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4213372433022719</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.95695979436662</v>
+        <v>-21.6398904041457</v>
       </c>
       <c r="F42" t="n">
-        <v>2.564831782066411</v>
+        <v>2.623668591037128</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.603023914892705</v>
+        <v>-5.098826240154993</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2561231250592328</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.24735698034507</v>
+        <v>-20.96153891700735</v>
       </c>
       <c r="F43" t="n">
-        <v>2.674492910668709</v>
+        <v>2.727359629543599</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.601531392368749</v>
+        <v>-5.085105506776864</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.06447537683524567</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.04652105475299</v>
+        <v>-20.71565237733689</v>
       </c>
       <c r="F44" t="n">
-        <v>2.628931696779502</v>
+        <v>2.68200789249986</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.711925689930183</v>
+        <v>-5.188547791529341</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.1504852664537139</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.60188026564229</v>
+        <v>-20.28181273807061</v>
       </c>
       <c r="F45" t="n">
-        <v>2.702012931242017</v>
+        <v>2.75914774084331</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.689996082670292</v>
+        <v>-5.164444861997723</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.3857591441142346</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.22216420632371</v>
+        <v>-19.9088653993212</v>
       </c>
       <c r="F46" t="n">
-        <v>2.839089341994889</v>
+        <v>2.848332507801148</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.756518073409102</v>
+        <v>-5.251770521952037</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.6370869443692811</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.71356751783118</v>
+        <v>-19.42390031745799</v>
       </c>
       <c r="F47" t="n">
-        <v>2.738435717747699</v>
+        <v>2.816439658078703</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.059644161103585</v>
+        <v>-5.555106086491988</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.9017369959841809</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.24756009048278</v>
+        <v>-18.96526385660948</v>
       </c>
       <c r="F48" t="n">
-        <v>2.78129991725151</v>
+        <v>2.819765103000502</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.157718601690956</v>
+        <v>-5.672334566136803</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.177751333211708</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.66144387686439</v>
+        <v>-18.42374002647001</v>
       </c>
       <c r="F49" t="n">
-        <v>2.730999289733599</v>
+        <v>2.802221417192589</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.500488182390185</v>
+        <v>-5.976534222664308</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.463089046500583</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.1645647994152</v>
+        <v>-17.94354054284118</v>
       </c>
       <c r="F50" t="n">
-        <v>2.765615338447123</v>
+        <v>2.854590628559493</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.519183990848171</v>
+        <v>-6.030723264126213</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.753081079656594</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.47018833359857</v>
+        <v>-17.24895460017909</v>
       </c>
       <c r="F51" t="n">
-        <v>2.76134724772072</v>
+        <v>2.830893560415969</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.844920485550315</v>
+        <v>-6.305072470174582</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.044944571249596</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.11594989560999</v>
+        <v>-16.88322112029547</v>
       </c>
       <c r="F52" t="n">
-        <v>2.626522713056625</v>
+        <v>2.70704037553324</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.84784006908402</v>
+        <v>-6.373335737191342</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.335984630231243</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.6617124485163</v>
+        <v>-16.43859342348761</v>
       </c>
       <c r="F53" t="n">
-        <v>2.696278502597341</v>
+        <v>2.776167734537554</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.92126170342042</v>
+        <v>-6.436846498276555</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.623067233947111</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.36267115930844</v>
+        <v>-16.14328344058964</v>
       </c>
       <c r="F54" t="n">
-        <v>2.449959916933107</v>
+        <v>2.527623457390226</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.249642843296593</v>
+        <v>-6.72231106943755</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.899620447679233</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.94145249998159</v>
+        <v>-15.76324007370001</v>
       </c>
       <c r="F55" t="n">
-        <v>2.401544581024404</v>
+        <v>2.422963588473468</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.361163078902416</v>
+        <v>-6.893938067389738</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.162593235213222</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.55136733681236</v>
+        <v>-15.37585192491618</v>
       </c>
       <c r="F56" t="n">
-        <v>2.24336337809067</v>
+        <v>2.309558061258437</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.539807551177768</v>
+        <v>-7.069113079412032</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.409066342905704</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.99819135714375</v>
+        <v>-14.82744154348196</v>
       </c>
       <c r="F57" t="n">
-        <v>2.190470474610096</v>
+        <v>2.261614048252036</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.846232899188366</v>
+        <v>-7.35474785050997</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.635777085051089</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.77181234870746</v>
+        <v>-14.59178009233089</v>
       </c>
       <c r="F58" t="n">
-        <v>2.032053610225211</v>
+        <v>2.086988912949093</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.852307727706927</v>
+        <v>-7.331495920663064</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.835932418752782</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.39345788888442</v>
+        <v>-14.20483708184367</v>
       </c>
       <c r="F59" t="n">
-        <v>2.068554950547943</v>
+        <v>2.140981569868372</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.999727057704763</v>
+        <v>-7.482135957159964</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.008773712051564</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.30056800022238</v>
+        <v>-14.10906688655645</v>
       </c>
       <c r="F60" t="n">
-        <v>1.892620584960828</v>
+        <v>1.957846437718308</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.941139002488039</v>
+        <v>-7.428955023016873</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.153550978512229</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.02562964054613</v>
+        <v>-13.8090567669383</v>
       </c>
       <c r="F61" t="n">
-        <v>1.784687640333639</v>
+        <v>1.850882323501406</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.188295495534144</v>
+        <v>-7.717142793168947</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.269556107440623</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.70577158981992</v>
+        <v>-13.49723739015691</v>
       </c>
       <c r="F62" t="n">
-        <v>1.725824646757238</v>
+        <v>1.78128364159479</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.376523533489639</v>
+        <v>-7.846010330040057</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.353659963661017</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.33048072886184</v>
+        <v>-13.14252762926602</v>
       </c>
       <c r="F63" t="n">
-        <v>1.66083445545091</v>
+        <v>1.711056529151771</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.427727529903629</v>
+        <v>-7.925061654598399</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.409966160541902</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.14892976535562</v>
+        <v>-12.92677957073722</v>
       </c>
       <c r="F64" t="n">
-        <v>1.563611014548252</v>
+        <v>1.606003891149761</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.592467976561069</v>
+        <v>-8.100550881888894</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.442303606941996</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.92135935736074</v>
+        <v>-12.71952841675269</v>
       </c>
       <c r="F65" t="n">
-        <v>1.514436325074729</v>
+        <v>1.542925176058325</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.799823868968327</v>
+        <v>-8.325319537075648</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.453242110670057</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.7066979599678</v>
+        <v>-12.49064877847364</v>
       </c>
       <c r="F66" t="n">
-        <v>1.409383687072719</v>
+        <v>1.460522221972501</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.860388861914151</v>
+        <v>-8.412134597219135</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.442282432589296</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.51916381406292</v>
+        <v>-12.30970006089814</v>
       </c>
       <c r="F67" t="n">
-        <v>1.43677278461761</v>
+        <v>1.491996118004011</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.812261556667966</v>
+        <v>-8.363051553865503</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.415364259862</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.42848652458112</v>
+        <v>-12.21444046542174</v>
       </c>
       <c r="F68" t="n">
-        <v>1.319937074058047</v>
+        <v>1.368247671544016</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.809996588276347</v>
+        <v>-8.366128245033309</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.376506028098673</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.30547124708026</v>
+        <v>-12.0842767905693</v>
       </c>
       <c r="F69" t="n">
-        <v>1.157697257243377</v>
+        <v>1.226732970127799</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.82062753818383</v>
+        <v>-8.407224983653487</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.327464831514225</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.21351091191998</v>
+        <v>-11.98143675174754</v>
       </c>
       <c r="F70" t="n">
-        <v>1.286682624840062</v>
+        <v>1.326404671661859</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.750819379431746</v>
+        <v>-8.348479820802662</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.267139402499451</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.96947038695021</v>
+        <v>-11.72528584664918</v>
       </c>
       <c r="F71" t="n">
-        <v>1.211742283374022</v>
+        <v>1.255248005717078</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.552300791442653</v>
+        <v>-8.18743140354659</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.200973381180291</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.93688364517715</v>
+        <v>-11.68594347660979</v>
       </c>
       <c r="F72" t="n">
-        <v>1.202433656053555</v>
+        <v>1.271155153669775</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.544825086520028</v>
+        <v>-8.180060437046698</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.13144156347886</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.90505625696892</v>
+        <v>-11.66697272979213</v>
       </c>
       <c r="F73" t="n">
-        <v>1.130871128720681</v>
+        <v>1.218262250189202</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.453532458804672</v>
+        <v>-8.070530231472818</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.058617750967527</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.07093573397358</v>
+        <v>-11.84290709537924</v>
       </c>
       <c r="F74" t="n">
-        <v>1.195193612582081</v>
+        <v>1.264923217517114</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.31517300237331</v>
+        <v>-7.94971446084937</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.980622426800316</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.19937122485092</v>
+        <v>-11.97447164663575</v>
       </c>
       <c r="F75" t="n">
-        <v>1.148152968471759</v>
+        <v>1.216953019905029</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.123475504164757</v>
+        <v>-7.783062537977038</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.902786640639464</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.51261766264206</v>
+        <v>-12.3020934329471</v>
       </c>
       <c r="F76" t="n">
-        <v>1.144709692824385</v>
+        <v>1.226183093408446</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.938991864821996</v>
+        <v>-7.602388758761219</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.826627690221469</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.06752182628577</v>
+        <v>-12.88498894006643</v>
       </c>
       <c r="F77" t="n">
-        <v>1.115356749853235</v>
+        <v>1.200365072204562</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.74932367355391</v>
+        <v>-7.418743026800326</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.75111555921176</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.60179252065093</v>
+        <v>-13.41516174364213</v>
       </c>
       <c r="F78" t="n">
-        <v>1.136134234463055</v>
+        <v>1.217633819652799</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.604418065701686</v>
+        <v>-7.281103647025261</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.673595129693021</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.09513667633285</v>
+        <v>-13.91302274380444</v>
       </c>
       <c r="F79" t="n">
-        <v>1.103220185118955</v>
+        <v>1.231943706658806</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.441562910653455</v>
+        <v>-7.091343809637283</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.59806333329027</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.62343728060218</v>
+        <v>-14.44623296163942</v>
       </c>
       <c r="F80" t="n">
-        <v>1.260000511648625</v>
+        <v>1.315328583457759</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.227425205374184</v>
+        <v>-6.856441712051034</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.524436021566976</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.38817178189024</v>
+        <v>-15.20749800267442</v>
       </c>
       <c r="F81" t="n">
-        <v>1.18032075655388</v>
+        <v>1.303925187682616</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.097287715127427</v>
+        <v>-6.734788034045716</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.450670707378483</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.12054211055356</v>
+        <v>-15.95804044768205</v>
       </c>
       <c r="F82" t="n">
-        <v>1.233986105902115</v>
+        <v>1.344864818668693</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.984877202928367</v>
+        <v>-6.634710471123562</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.375149356235694</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.96055735318155</v>
+        <v>-16.81163240835691</v>
       </c>
       <c r="F83" t="n">
-        <v>1.171562005952765</v>
+        <v>1.289720039099343</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.788165352731433</v>
+        <v>-6.394519083189254</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.301135992163277</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.04297658292409</v>
+        <v>-17.88734837904449</v>
       </c>
       <c r="F84" t="n">
-        <v>1.260812234424812</v>
+        <v>1.39050458637495</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.589345641776981</v>
+        <v>-6.210768612805629</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.22763339503383</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.86330100207812</v>
+        <v>-18.70206929258226</v>
       </c>
       <c r="F85" t="n">
-        <v>1.25389949852438</v>
+        <v>1.372594316087469</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.367051431827313</v>
+        <v>-5.993606585569919</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.151223473576811</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.90135041749005</v>
+        <v>-19.7599797314051</v>
       </c>
       <c r="F86" t="n">
-        <v>1.283317903009739</v>
+        <v>1.39126393993977</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.082529506470923</v>
+        <v>-5.706832784124751</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.07067496204888</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.97539057341389</v>
+        <v>-20.84055294644696</v>
       </c>
       <c r="F87" t="n">
-        <v>1.318942059042076</v>
+        <v>1.422161774646244</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.764517470445396</v>
+        <v>-5.407490371951527</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.988809155394974</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.33674131519941</v>
+        <v>-22.1934067836882</v>
       </c>
       <c r="F88" t="n">
-        <v>1.397443506881065</v>
+        <v>1.482491106140918</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.552212687563967</v>
+        <v>-5.158239110450745</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.906269807637374</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.80691527820536</v>
+        <v>-23.66276902391795</v>
       </c>
       <c r="F89" t="n">
-        <v>1.21385014413154</v>
+        <v>1.284051071968876</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.151509666790099</v>
+        <v>-4.778588512646373</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.822005597948633</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.29912358689393</v>
+        <v>-25.16266251437462</v>
       </c>
       <c r="F90" t="n">
-        <v>1.068761244039532</v>
+        <v>1.142444724432766</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.996509893446904</v>
+        <v>-4.600860501569942</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.73806707118431</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.79499774037818</v>
+        <v>-26.73130368705318</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8969247692418774</v>
+        <v>0.9677017584042485</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.974069686376185</v>
+        <v>-4.564581730395519</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.657481953725243</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.48400954538358</v>
+        <v>-28.43208547231329</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8300361940234989</v>
+        <v>0.9006037063404024</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.709709907396053</v>
+        <v>-4.31458420763276</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.58019318187898</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.41941848987026</v>
+        <v>-30.3472013473953</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7540615606329626</v>
+        <v>0.8000810051216297</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.796472598328171</v>
+        <v>-4.383999597299591</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.503151687868729</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.57483049130931</v>
+        <v>-32.49648615110441</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7392803507246538</v>
+        <v>0.7560646829677466</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.806043071705473</v>
+        <v>-4.400247145126174</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.42594771219028</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.68963016933332</v>
+        <v>-34.5973163419963</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3112667862229452</v>
+        <v>0.3306041175201746</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.84834430218709</v>
+        <v>-4.428199211693259</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.346803582654366</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.73273639699604</v>
+        <v>-36.62972615823734</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1199620570996439</v>
+        <v>0.09786224990281028</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.013857194712191</v>
+        <v>-4.598660994692532</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.26179771803735</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.91154434361325</v>
+        <v>-38.78964191185393</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1930225346346595</v>
+        <v>-0.2195999094033634</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.104469022679777</v>
+        <v>-4.696447404617384</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.164553671944498</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.28490391045851</v>
+        <v>-41.14818099188236</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4444733030128504</v>
+        <v>-0.4857271492671292</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.334945921905523</v>
+        <v>-4.922551474693993</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.054133733711708</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.69615260172773</v>
+        <v>-43.57013918687611</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.3268389619799417</v>
+        <v>-0.3809232650191121</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.66487195351702</v>
+        <v>-5.238089065482433</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.928100788110258</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.16898748556441</v>
+        <v>-46.04235873247924</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.4538735764532097</v>
+        <v>-0.5080364333094304</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.859318835322335</v>
+        <v>-5.460160706283791</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.788188017400385</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.57801048535054</v>
+        <v>-48.45807189901748</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.4850594418222012</v>
+        <v>-0.5448781735060476</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.2225255007575</v>
+        <v>-5.824833709637229</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.63123627829927</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.84902752088203</v>
+        <v>-50.73382834817768</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.622711913900109</v>
+        <v>-0.6717949572537401</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.497725706490582</v>
+        <v>-6.12255267625808</v>
       </c>
     </row>
   </sheetData>
